--- a/Documents/Minor Cloud Solutions - student datapoints tracking1.xlsx
+++ b/Documents/Minor Cloud Solutions - student datapoints tracking1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Alles-Git\my-files\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Brian-Git\CloudMinor\BrianCloudMinor\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E6A082-EB3C-4080-8282-59BCEAAEEB27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E338106-7A49-4CFC-AF90-99DE011E4C07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="226">
   <si>
     <t>NL/EN</t>
   </si>
@@ -1633,6 +1633,19 @@
   <si>
     <t>Zorg dat je meer doet en als je vragen heb stel ze
 meteen je kan ook eventueel ook andere studeneten vragen over hoe hun sommige problemen hebben opgelost waar jij tegen aanloopt. En het is een cloud minor dus blijf niet teveel hangen in dingen zoals het twitter api en probeer eerst de cloud dingen te doen.</t>
+  </si>
+  <si>
+    <t>Ik heb alles proberen in te halen waar ik op achter liep en dat is voor het grootste gedeelte gelukt. Ik heb alle fundemental courses door gelopen en deel 1 en 2 van de devops courses afgerond. Zelf ben ik tevreden wat ik heb bereikt en heb ik me redelijk goed gehouden aan mijn planning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goed dat je alle fundemantal courses heb doorgenomen en goed op weg bent met de DevOps courses.
+Goed dat je een globale planning heb gemaakt voor de hoeveelheid tijd je wilt besteden aan de minor per week.
+Als je ziek bent geweest laat dit ook weten aan alle docenten zodat iedereen het weet en niet alleen bijv. Peter.
+Zorg dat je je zo goed mogelijk aan de planning houdt. En bereid je goed voor op je learning story. </t>
+  </si>
+  <si>
+    <t>Ik wil onderzoeken hoe ik  mijn eigen afspraken uit outlook kan halen, met als doel dit later te gebruiken in een PA.
+Ik begin daarom met te kijken of dit meet en logic app kan.</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1809,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1824,6 +1837,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1989,7 +2008,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2172,16 +2191,55 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2190,43 +2248,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2549,8 +2571,8 @@
   </sheetPr>
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2782,10 +2804,10 @@
       <c r="B20" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="D20" s="90" t="s">
+      <c r="D20" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="91" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2803,12 +2825,12 @@
     </row>
     <row r="22" spans="1:6" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="71" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2846,7 +2868,7 @@
     </row>
     <row r="26" spans="1:6" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>11</v>
@@ -3444,44 +3466,44 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="73" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="89"/>
     </row>
     <row r="6" spans="1:6" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="77"/>
+      <c r="F6" s="90"/>
     </row>
     <row r="7" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="73" t="s">
         <v>166</v>
       </c>
       <c r="E7" s="56" t="s">
@@ -3490,10 +3512,10 @@
       <c r="F7" s="57"/>
     </row>
     <row r="8" spans="1:6" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="44" t="s">
         <v>167</v>
       </c>
@@ -3503,257 +3525,257 @@
       <c r="A9" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="10" spans="1:6" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="73" t="s">
         <v>86</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="89"/>
     </row>
     <row r="12" spans="1:6" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="77"/>
+      <c r="F12" s="90"/>
     </row>
     <row r="13" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="73" t="s">
         <v>91</v>
       </c>
       <c r="E13" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="76"/>
+      <c r="F13" s="89"/>
     </row>
     <row r="14" spans="1:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="77"/>
+      <c r="F14" s="90"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="73" t="s">
         <v>98</v>
       </c>
       <c r="E17" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="76"/>
+      <c r="F17" s="89"/>
     </row>
     <row r="18" spans="1:6" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="73"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="77"/>
+      <c r="F18" s="90"/>
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="73" t="s">
         <v>103</v>
       </c>
       <c r="E19" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="76"/>
+      <c r="F19" s="89"/>
     </row>
     <row r="20" spans="1:6" ht="47.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="77"/>
+      <c r="F20" s="90"/>
     </row>
     <row r="21" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="73" t="s">
         <v>107</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="76"/>
+      <c r="F21" s="89"/>
     </row>
     <row r="22" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="75"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="44" t="s">
         <v>158</v>
       </c>
       <c r="E22" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="77"/>
+      <c r="F22" s="90"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="80"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="87"/>
     </row>
     <row r="24" spans="1:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="81"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="88"/>
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="73" t="s">
         <v>114</v>
       </c>
       <c r="E25" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="76"/>
+      <c r="F25" s="89"/>
     </row>
     <row r="26" spans="1:6" ht="71.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="73"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="77"/>
+      <c r="F26" s="90"/>
     </row>
     <row r="27" spans="1:6" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="73" t="s">
         <v>119</v>
       </c>
       <c r="E27" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="74"/>
+      <c r="F27" s="73"/>
     </row>
     <row r="28" spans="1:6" ht="114.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="73"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
       <c r="E28" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="75"/>
+      <c r="F28" s="74"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
@@ -4032,6 +4054,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="A21:A22"/>
@@ -4048,48 +4112,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
